--- a/IG-Publisher/output/StructureDefinition-Coverage.xlsx
+++ b/IG-Publisher/output/StructureDefinition-Coverage.xlsx
@@ -557,47 +557,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.1015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.3984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="57.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.90234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="52.33203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="55.328125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.1640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/IG-Publisher/output/StructureDefinition-Coverage.xlsx
+++ b/IG-Publisher/output/StructureDefinition-Coverage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="299">
   <si>
     <t>Path</t>
   </si>
@@ -152,20 +152,20 @@
     <t>*</t>
   </si>
   <si>
-    <t>A resource with narrative, extensions, and contained resources</t>
-  </si>
-  <si>
-    <t>A resource that includes narrative, extensions, and contained resources.</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
+    <t>Insurance or medical plan or a payment agreement</t>
+  </si>
+  <si>
+    <t>Financial instrument which may be used to reimburse or pay for health care products and services. Includes both insurance and self-payment.</t>
+  </si>
+  <si>
+    <t>The Coverage resource contains the insurance card level information, which is customary to provide on claims and other communications between providers and insurers.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>Entity. Role, or Act</t>
+    <t>Event</t>
   </si>
   <si>
     <t>Coverage.id</t>
@@ -332,16 +332,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -400,6 +390,558 @@
   </si>
   <si>
     <t>C.32, C.33, C.39</t>
+  </si>
+  <si>
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>Act.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Coverage.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Coverage category such as medical or accident</t>
+  </si>
+  <si>
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>The order of application of coverages is dependent on the types of coverage.</t>
+  </si>
+  <si>
+    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>IN1-15</t>
+  </si>
+  <si>
+    <t>Coverage.policyHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Owner of the policy</t>
+  </si>
+  <si>
+    <t>The party who 'owns' the insurance policy.</t>
+  </si>
+  <si>
+    <t>For example: may be an individual, corporation or the subscriber's employer.</t>
+  </si>
+  <si>
+    <t>This provides employer information in the case of Worker's Compensation and other policies.</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>D01 through D09</t>
+  </si>
+  <si>
+    <t>IN1-16, 18,  19-name of insured, address, date of birth</t>
+  </si>
+  <si>
+    <t>C.35</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Subscriber to the policy</t>
+  </si>
+  <si>
+    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
+  </si>
+  <si>
+    <t>May be self or a parent in the case of dependants.</t>
+  </si>
+  <si>
+    <t>This is the party who is entitled to the benfits under the policy.</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId</t>
+  </si>
+  <si>
+    <t>ID assigned to the subscriber</t>
+  </si>
+  <si>
+    <t>The insurer assigned ID for the Subscriber.</t>
+  </si>
+  <si>
+    <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
+  </si>
+  <si>
+    <t>Coverage.beneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Plan beneficiary</t>
+  </si>
+  <si>
+    <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.</t>
+  </si>
+  <si>
+    <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Coverage.dependent</t>
+  </si>
+  <si>
+    <t>Dependent number</t>
+  </si>
+  <si>
+    <t>A unique identifier for a dependent under the coverage.</t>
+  </si>
+  <si>
+    <t>Periodically the member number is constructed from the subscriberId and the dependant number.</t>
+  </si>
+  <si>
+    <t>For some coverages a single identifier is issued to the Subscriber and then a unique dependent number is issued to each beneficiary.</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>- No exact HL7 v2 equivalent concept seems to exist;</t>
+  </si>
+  <si>
+    <t>Coverage.relationship</t>
+  </si>
+  <si>
+    <t>Beneficiary relationship to the subscriber</t>
+  </si>
+  <si>
+    <t>The relationship of beneficiary (patient) to the subscriber.</t>
+  </si>
+  <si>
+    <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.</t>
+  </si>
+  <si>
+    <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>The relationship between the Subscriber and the Beneficiary (insured/covered party/patient).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/subscriber-relationship</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Coverage.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Coverage start and end dates</t>
+  </si>
+  <si>
+    <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
+  </si>
+  <si>
+    <t>Some insurers require the submission of the coverage term.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Act.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>IN1-12 / IN1-13</t>
+  </si>
+  <si>
+    <t>Coverage.payor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Issuer of the policy</t>
+  </si>
+  <si>
+    <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.</t>
+  </si>
+  <si>
+    <t>May provide multiple identifiers such as insurance company identifier or business identifier (BIN number).
+For selfpay it may provide multiple paying persons and/or organizations.</t>
+  </si>
+  <si>
+    <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>IN1-3</t>
+  </si>
+  <si>
+    <t>C.30</t>
+  </si>
+  <si>
+    <t>Coverage.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Additional coverage classifications</t>
+  </si>
+  <si>
+    <t>A suite of underwriter specific classifiers.</t>
+  </si>
+  <si>
+    <t>For example may be used to identify a class of coverage or employer group, Policy, Plan.</t>
+  </si>
+  <si>
+    <t>The codes provided on the health card which identify or confirm the specific policy for the insurer.</t>
+  </si>
+  <si>
+    <t>Coverage.class.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Coverage.class.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Coverage.class.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.class.type</t>
+  </si>
+  <si>
+    <t>Type of class such as 'group' or 'plan'</t>
+  </si>
+  <si>
+    <t>The type of classification for which an insurer-specific class label or number and optional name is provided, for example may be used to identify a class of coverage or employer group, Policy, Plan.</t>
+  </si>
+  <si>
+    <t>The insurer issued label for a specific health card value.</t>
+  </si>
+  <si>
+    <t>The policy classifications, eg. Group, Plan, Class, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-class</t>
+  </si>
+  <si>
+    <t>Coverage.class.value</t>
+  </si>
+  <si>
+    <t>Value associated with the type</t>
+  </si>
+  <si>
+    <t>The alphanumeric string value associated with the insurer issued label.</t>
+  </si>
+  <si>
+    <t>For example, the Group or Plan number.</t>
+  </si>
+  <si>
+    <t>The insurer issued label and value are necessary to identify the specific policy.</t>
+  </si>
+  <si>
+    <t>C11 (Division,Section)</t>
+  </si>
+  <si>
+    <t>IN1-8</t>
+  </si>
+  <si>
+    <t>C.31</t>
+  </si>
+  <si>
+    <t>Coverage.class.name</t>
+  </si>
+  <si>
+    <t>Human readable description of the type and value</t>
+  </si>
+  <si>
+    <t>A short description for the class.</t>
+  </si>
+  <si>
+    <t>Used to provide a meaningful description in correspondence to the patient.</t>
+  </si>
+  <si>
+    <t>Coverage.order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Relative order of the coverage</t>
+  </si>
+  <si>
+    <t>The order of applicability of this coverage relative to other coverages which are currently in force. Note, there may be gaps in the numbering and this does not imply primary, secondary etc. as the specific positioning of coverages depends upon the episode of care.</t>
+  </si>
+  <si>
+    <t>Used in managing the coordination of benefits.</t>
+  </si>
+  <si>
+    <t>Coverage.network</t>
+  </si>
+  <si>
+    <t>Insurer network</t>
+  </si>
+  <si>
+    <t>The insurer-specific identifier for the insurer-defined network of providers to which the beneficiary may seek treatment which will be covered at the 'in-network' rate, otherwise 'out of network' terms and conditions apply.</t>
+  </si>
+  <si>
+    <t>Used in referral for treatment and in claims processing.</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary</t>
+  </si>
+  <si>
+    <t>CoPay
+DeductibleExceptions</t>
+  </si>
+  <si>
+    <t>Patient payments for services/products</t>
+  </si>
+  <si>
+    <t>A suite of codes indicating the cost category and associated amount which have been detailed in the policy and may have been  included on the health card.</t>
+  </si>
+  <si>
+    <t>For example by knowing the patient visit co-pay, the provider can collect the amount prior to undertaking treatment.</t>
+  </si>
+  <si>
+    <t>Required by providers to manage financial transaction with the patient.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.id</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.extension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.type</t>
+  </si>
+  <si>
+    <t>Cost category</t>
+  </si>
+  <si>
+    <t>The category of patient centric costs associated with treatment.</t>
+  </si>
+  <si>
+    <t>For example visit, specialist visits, emergency, inpatient care, etc.</t>
+  </si>
+  <si>
+    <t>Needed to identify the category associated with the amount for the patient.</t>
+  </si>
+  <si>
+    <t>The types of services to which patient copayments are specified.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-copay-type</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity {SimpleQuantity}
+Money</t>
+  </si>
+  <si>
+    <t>The amount or percentage due from the beneficiary</t>
+  </si>
+  <si>
+    <t>The amount due from the patient for the cost category.</t>
+  </si>
+  <si>
+    <t>Amount may be expressed as a percentage of the service/product cost or a fixed amount of currency.</t>
+  </si>
+  <si>
+    <t>Needed to identify the amount for the patient associated with the category.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception</t>
+  </si>
+  <si>
+    <t>Exceptions for patient payments</t>
+  </si>
+  <si>
+    <t>A suite of codes indicating exceptions or reductions to patient costs and their effective periods.</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.id</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.extension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.type</t>
+  </si>
+  <si>
+    <t>Exception category</t>
+  </si>
+  <si>
+    <t>The code for the specific exception.</t>
+  </si>
+  <si>
+    <t>Needed to identify the exception associated with the amount for the patient.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The types of exceptions from the part or full value of financial obligations such as copays.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-financial-exception</t>
+  </si>
+  <si>
+    <t>Coverage.costToBeneficiary.exception.period</t>
+  </si>
+  <si>
+    <t>The effective period of the exception</t>
+  </si>
+  <si>
+    <t>The timeframe during when the exception is in force.</t>
+  </si>
+  <si>
+    <t>Needed to identify the applicable timeframe for the exception for the correct calculation of patient costs.</t>
+  </si>
+  <si>
+    <t>Coverage.subrogation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Reimbursement to insurer</t>
+  </si>
+  <si>
+    <t>When 'subrogation=true' this insurance instance has been included not for adjudication but to provide insurers with the details to recover costs.</t>
+  </si>
+  <si>
+    <t>Typically, automotive and worker's compensation policies would be flagged with 'subrogation=true' to enable healthcare payors to collect against accident claims.</t>
+  </si>
+  <si>
+    <t>See definition for when to be used.</t>
+  </si>
+  <si>
+    <t>Coverage.contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Contract)
+</t>
+  </si>
+  <si>
+    <t>Contract details</t>
+  </si>
+  <si>
+    <t>The policy(s) which constitute this insurance coverage.</t>
+  </si>
+  <si>
+    <t>To reference the legally binding contract between the policy holder and the insurer.</t>
+  </si>
+  <si>
+    <t>IN1-16, 18,  19</t>
   </si>
 </sst>
 </file>
@@ -548,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -557,47 +1099,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="36.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="140.14453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="57.1640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="49.5625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="55.328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -758,7 +1300,9 @@
       <c r="L2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
         <v>42</v>
@@ -807,7 +1351,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>43</v>
@@ -822,10 +1366,10 @@
         <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>42</v>
@@ -1612,19 +2156,19 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>43</v>
@@ -1636,7 +2180,7 @@
         <v>42</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>42</v>
@@ -1659,7 +2203,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1685,16 +2229,16 @@
         <v>97</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>100</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -1731,19 +2275,19 @@
         <v>42</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -1755,7 +2299,7 @@
         <v>42</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>42</v>
@@ -1778,7 +2322,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1801,19 +2345,19 @@
         <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -1862,10 +2406,10 @@
         <v>42</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>44</v>
@@ -1874,29 +2418,3914 @@
         <v>42</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AM11" t="s" s="2">
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO11">
+  <autoFilter ref="A1:AO44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1906,7 +6335,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI10">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
